--- a/BlueServer/json/SimTable.xlsx
+++ b/BlueServer/json/SimTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GO_WORK\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Blue\BlueServer\trunk\BlueServerLinux\BlueServer\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,15 +272,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CreateWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateArcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VC2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CreateWarrior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateArcher</t>
+    <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,34 +1187,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1214,10 +1223,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1225,28 +1237,37 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="2">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="4">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4">
         <v>1000</v>
       </c>
     </row>

--- a/BlueServer/json/SimTable.xlsx
+++ b/BlueServer/json/SimTable.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10785" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Char" sheetId="1" r:id="rId1"/>
     <sheet name="Product" sheetId="11" r:id="rId2"/>
-    <sheet name="warriorStat" sheetId="2" r:id="rId3"/>
+    <sheet name="WarriorStat" sheetId="2" r:id="rId3"/>
     <sheet name="ArcherStat" sheetId="3" r:id="rId4"/>
     <sheet name="CharTier" sheetId="4" r:id="rId5"/>
     <sheet name="DungeonTier" sheetId="10" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="68">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,18 +65,6 @@
     <t>Archer</t>
   </si>
   <si>
-    <t>MonsterA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,14 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CreateWarrior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateArcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VCType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +269,34 @@
   </si>
   <si>
     <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateChar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInt32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +772,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,24 +799,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -849,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -860,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -877,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -894,7 +902,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -904,48 +912,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -953,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -976,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -999,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1022,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -1045,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -1068,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -1091,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
@@ -1114,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4">
         <v>8</v>
@@ -1137,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -1160,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
@@ -1187,87 +1195,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="3" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -1282,7 +1302,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1297,7 +1317,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1307,36 +1327,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1705,7 +1725,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1715,36 +1735,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2117,7 +2137,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2127,48 +2147,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2176,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2191,10 +2211,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2206,10 +2226,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2221,16 +2241,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
@@ -2240,16 +2260,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
@@ -2259,16 +2279,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
@@ -2278,22 +2298,22 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2301,22 +2321,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2324,22 +2344,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2392,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2382,48 +2402,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2431,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2446,10 +2466,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2461,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2476,16 +2496,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
@@ -2495,16 +2515,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
@@ -2514,16 +2534,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
@@ -2533,22 +2553,22 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2556,22 +2576,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2579,22 +2599,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2643,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2633,36 +2653,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2991,7 +3011,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3001,36 +3021,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3359,7 +3379,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3369,36 +3389,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/BlueServer/json/SimTable.xlsx
+++ b/BlueServer/json/SimTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10785" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10785" tabRatio="758" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Char" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="MobBStat" sheetId="6" r:id="rId8"/>
     <sheet name="MobCStat" sheetId="7" r:id="rId9"/>
     <sheet name="Dungeon" sheetId="8" r:id="rId10"/>
+    <sheet name="Item" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="85">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +298,74 @@
   </si>
   <si>
     <t>MobA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather Clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,6 +1253,206 @@
       </c>
       <c r="G17" s="4">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1467,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1571,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1709,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2628,7 +2897,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+      <selection activeCell="C8" sqref="C8:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2691,13 +2960,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2706,13 +2975,13 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2721,13 +2990,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2736,13 +3005,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2751,13 +3020,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2766,13 +3035,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D13" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E13" s="4">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2781,13 +3050,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,13 +3065,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E15" s="4">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2811,13 +3080,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2">
-        <v>520</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,13 +3095,13 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D17" s="4">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="E17" s="4">
-        <v>660</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2841,10 +3110,10 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D18" s="2">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2">
         <v>800</v>
@@ -2856,10 +3125,10 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E19" s="4">
         <v>1100</v>
@@ -2871,10 +3140,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2">
         <v>1400</v>
@@ -2886,10 +3155,10 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="D21" s="4">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="E21" s="4">
         <v>1900</v>
@@ -2901,10 +3170,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="D22" s="2">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2">
         <v>2300</v>
@@ -2916,10 +3185,10 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="D23" s="4">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="E23" s="4">
         <v>2600</v>
@@ -2931,10 +3200,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D24" s="2">
-        <v>690</v>
+        <v>300</v>
       </c>
       <c r="E24" s="2">
         <v>2900</v>
@@ -2946,10 +3215,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="D25" s="4">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="E25" s="4">
         <v>3200</v>
@@ -2961,10 +3230,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="D26" s="2">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="E26" s="2">
         <v>3600</v>
@@ -2976,10 +3245,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>550</v>
+        <v>360</v>
       </c>
       <c r="D27" s="4">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="E27" s="4">
         <v>4000</v>
@@ -2988,6 +3257,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2996,7 +3266,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C8" sqref="C8:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3059,13 +3329,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3074,13 +3344,13 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3089,13 +3359,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3104,13 +3374,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3119,13 +3389,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3134,13 +3404,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D13" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E13" s="4">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3149,13 +3419,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3164,13 +3434,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E15" s="4">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3179,13 +3449,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2">
-        <v>520</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3194,13 +3464,13 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D17" s="4">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="E17" s="4">
-        <v>660</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3209,10 +3479,10 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D18" s="2">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2">
         <v>800</v>
@@ -3224,10 +3494,10 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E19" s="4">
         <v>1100</v>
@@ -3239,10 +3509,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2">
         <v>1400</v>
@@ -3254,10 +3524,10 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="D21" s="4">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="E21" s="4">
         <v>1900</v>
@@ -3269,10 +3539,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="D22" s="2">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2">
         <v>2300</v>
@@ -3284,10 +3554,10 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="D23" s="4">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="E23" s="4">
         <v>2600</v>
@@ -3299,10 +3569,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D24" s="2">
-        <v>690</v>
+        <v>300</v>
       </c>
       <c r="E24" s="2">
         <v>2900</v>
@@ -3314,10 +3584,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="D25" s="4">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="E25" s="4">
         <v>3200</v>
@@ -3329,10 +3599,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="D26" s="2">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="E26" s="2">
         <v>3600</v>
@@ -3344,10 +3614,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>550</v>
+        <v>360</v>
       </c>
       <c r="D27" s="4">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="E27" s="4">
         <v>4000</v>
@@ -3364,7 +3634,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3427,13 +3697,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3442,13 +3712,13 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4">
-        <v>130</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3457,13 +3727,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3472,13 +3742,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4">
-        <v>190</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3487,13 +3757,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2">
-        <v>220</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3502,13 +3772,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D13" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E13" s="4">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3517,13 +3787,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2">
-        <v>280</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,13 +3802,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E15" s="4">
-        <v>310</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3547,13 +3817,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2">
-        <v>400</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3562,13 +3832,13 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="D17" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E17" s="4">
-        <v>460</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3577,13 +3847,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D18" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2">
-        <v>560</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3592,13 +3862,13 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E19" s="4">
-        <v>680</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3607,13 +3877,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2">
-        <v>750</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3622,13 +3892,13 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="D21" s="4">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="E21" s="4">
-        <v>900</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3637,13 +3907,13 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D22" s="2">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2">
-        <v>1050</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3652,13 +3922,13 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D23" s="4">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="E23" s="4">
-        <v>1300</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3667,13 +3937,13 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="D24" s="2">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="E24" s="2">
-        <v>1500</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3682,13 +3952,13 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="D25" s="4">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="E25" s="4">
-        <v>1700</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3697,13 +3967,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="D26" s="2">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="E26" s="2">
-        <v>1900</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3712,13 +3982,13 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="D27" s="4">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="E27" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/BlueServer/json/SimTable.xlsx
+++ b/BlueServer/json/SimTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10785" tabRatio="758" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10785" tabRatio="758" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Char" sheetId="1" r:id="rId1"/>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="D8" sqref="D8:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1639,7 +1639,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
@@ -1656,7 +1656,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="4">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4">
         <v>150</v>
@@ -1673,7 +1673,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="2">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2">
         <v>200</v>
@@ -1690,7 +1690,7 @@
         <v>130</v>
       </c>
       <c r="D11" s="4">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4">
         <v>250</v>
@@ -1707,7 +1707,7 @@
         <v>140</v>
       </c>
       <c r="D12" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2">
         <v>300</v>
@@ -1724,7 +1724,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4">
         <v>350</v>
@@ -1741,7 +1741,7 @@
         <v>160</v>
       </c>
       <c r="D14" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2">
         <v>400</v>
@@ -1758,7 +1758,7 @@
         <v>170</v>
       </c>
       <c r="D15" s="4">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E15" s="4">
         <v>450</v>
@@ -1775,7 +1775,7 @@
         <v>180</v>
       </c>
       <c r="D16" s="2">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2">
         <v>500</v>
@@ -1792,7 +1792,7 @@
         <v>190</v>
       </c>
       <c r="D17" s="4">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E17" s="4">
         <v>550</v>
@@ -1809,7 +1809,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2">
         <v>600</v>
@@ -1826,7 +1826,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="4">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E19" s="4">
         <v>700</v>
@@ -1843,7 +1843,7 @@
         <v>240</v>
       </c>
       <c r="D20" s="2">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2">
         <v>800</v>
@@ -1860,7 +1860,7 @@
         <v>260</v>
       </c>
       <c r="D21" s="4">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E21" s="4">
         <v>900</v>
@@ -1877,7 +1877,7 @@
         <v>280</v>
       </c>
       <c r="D22" s="2">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E22" s="2">
         <v>1000</v>
@@ -1894,7 +1894,7 @@
         <v>300</v>
       </c>
       <c r="D23" s="4">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="E23" s="4">
         <v>1100</v>
@@ -1911,7 +1911,7 @@
         <v>330</v>
       </c>
       <c r="D24" s="2">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="E24" s="2">
         <v>1200</v>
@@ -1928,7 +1928,7 @@
         <v>360</v>
       </c>
       <c r="D25" s="4">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="E25" s="4">
         <v>1300</v>
@@ -1945,7 +1945,7 @@
         <v>400</v>
       </c>
       <c r="D26" s="2">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="E26" s="2">
         <v>1500</v>
@@ -1962,7 +1962,7 @@
         <v>450</v>
       </c>
       <c r="D27" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E27" s="4">
         <v>1700</v>
@@ -1971,6 +1971,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1978,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2047,7 +2048,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
@@ -2064,7 +2065,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="4">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4">
         <v>130</v>
@@ -2081,7 +2082,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="2">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2">
         <v>160</v>
@@ -2098,7 +2099,7 @@
         <v>130</v>
       </c>
       <c r="D11" s="4">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4">
         <v>190</v>
@@ -2115,7 +2116,7 @@
         <v>140</v>
       </c>
       <c r="D12" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2">
         <v>220</v>
@@ -2132,7 +2133,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4">
         <v>250</v>
@@ -2149,7 +2150,7 @@
         <v>160</v>
       </c>
       <c r="D14" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2">
         <v>280</v>
@@ -2166,7 +2167,7 @@
         <v>170</v>
       </c>
       <c r="D15" s="4">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E15" s="4">
         <v>310</v>
@@ -2183,7 +2184,7 @@
         <v>190</v>
       </c>
       <c r="D16" s="2">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2">
         <v>340</v>
@@ -2200,7 +2201,7 @@
         <v>210</v>
       </c>
       <c r="D17" s="4">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E17" s="4">
         <v>370</v>
@@ -2217,7 +2218,7 @@
         <v>230</v>
       </c>
       <c r="D18" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2">
         <v>410</v>
@@ -2234,7 +2235,7 @@
         <v>250</v>
       </c>
       <c r="D19" s="4">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="E19" s="4">
         <v>450</v>
@@ -2251,7 +2252,7 @@
         <v>280</v>
       </c>
       <c r="D20" s="2">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2">
         <v>500</v>
@@ -2268,7 +2269,7 @@
         <v>320</v>
       </c>
       <c r="D21" s="4">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="E21" s="4">
         <v>550</v>
@@ -2285,7 +2286,7 @@
         <v>360</v>
       </c>
       <c r="D22" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="E22" s="2">
         <v>600</v>
@@ -2302,7 +2303,7 @@
         <v>410</v>
       </c>
       <c r="D23" s="4">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="E23" s="4">
         <v>700</v>
@@ -2319,7 +2320,7 @@
         <v>490</v>
       </c>
       <c r="D24" s="2">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="E24" s="2">
         <v>800</v>
@@ -2336,7 +2337,7 @@
         <v>670</v>
       </c>
       <c r="D25" s="4">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="E25" s="4">
         <v>900</v>
@@ -2353,7 +2354,7 @@
         <v>750</v>
       </c>
       <c r="D26" s="2">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="E26" s="2">
         <v>1000</v>
@@ -2370,7 +2371,7 @@
         <v>900</v>
       </c>
       <c r="D27" s="4">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E27" s="4">
         <v>1200</v>
@@ -2897,7 +2898,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E27"/>
+      <selection activeCell="D8" sqref="D8:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2963,7 +2964,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2">
         <v>200</v>
@@ -2978,7 +2979,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4">
         <v>250</v>
@@ -2993,7 +2994,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>300</v>
@@ -3008,7 +3009,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="4">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E11" s="4">
         <v>350</v>
@@ -3023,7 +3024,7 @@
         <v>130</v>
       </c>
       <c r="D12" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2">
         <v>400</v>
@@ -3038,7 +3039,7 @@
         <v>140</v>
       </c>
       <c r="D13" s="4">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4">
         <v>450</v>
@@ -3053,7 +3054,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>500</v>
@@ -3068,7 +3069,7 @@
         <v>160</v>
       </c>
       <c r="D15" s="4">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4">
         <v>550</v>
@@ -3083,7 +3084,7 @@
         <v>170</v>
       </c>
       <c r="D16" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2">
         <v>620</v>
@@ -3098,7 +3099,7 @@
         <v>180</v>
       </c>
       <c r="D17" s="4">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E17" s="4">
         <v>760</v>
@@ -3113,7 +3114,7 @@
         <v>190</v>
       </c>
       <c r="D18" s="2">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2">
         <v>800</v>
@@ -3128,7 +3129,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E19" s="4">
         <v>1100</v>
@@ -3143,7 +3144,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2">
         <v>1400</v>
@@ -3158,7 +3159,7 @@
         <v>240</v>
       </c>
       <c r="D21" s="4">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="E21" s="4">
         <v>1900</v>
@@ -3173,7 +3174,7 @@
         <v>260</v>
       </c>
       <c r="D22" s="2">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2">
         <v>2300</v>
@@ -3188,7 +3189,7 @@
         <v>280</v>
       </c>
       <c r="D23" s="4">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="E23" s="4">
         <v>2600</v>
@@ -3203,7 +3204,7 @@
         <v>300</v>
       </c>
       <c r="D24" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2">
         <v>2900</v>
@@ -3218,7 +3219,7 @@
         <v>320</v>
       </c>
       <c r="D25" s="4">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="E25" s="4">
         <v>3200</v>
@@ -3233,7 +3234,7 @@
         <v>340</v>
       </c>
       <c r="D26" s="2">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="E26" s="2">
         <v>3600</v>
@@ -3248,7 +3249,7 @@
         <v>360</v>
       </c>
       <c r="D27" s="4">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="E27" s="4">
         <v>4000</v>
@@ -3266,7 +3267,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E27"/>
+      <selection activeCell="D8" sqref="D8:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3332,7 +3333,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2">
         <v>200</v>
@@ -3347,7 +3348,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4">
         <v>250</v>
@@ -3362,7 +3363,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>300</v>
@@ -3377,7 +3378,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="4">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E11" s="4">
         <v>350</v>
@@ -3392,7 +3393,7 @@
         <v>130</v>
       </c>
       <c r="D12" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2">
         <v>400</v>
@@ -3407,7 +3408,7 @@
         <v>140</v>
       </c>
       <c r="D13" s="4">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4">
         <v>450</v>
@@ -3422,7 +3423,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>500</v>
@@ -3437,7 +3438,7 @@
         <v>160</v>
       </c>
       <c r="D15" s="4">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4">
         <v>550</v>
@@ -3452,7 +3453,7 @@
         <v>170</v>
       </c>
       <c r="D16" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2">
         <v>620</v>
@@ -3467,7 +3468,7 @@
         <v>180</v>
       </c>
       <c r="D17" s="4">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E17" s="4">
         <v>760</v>
@@ -3482,7 +3483,7 @@
         <v>190</v>
       </c>
       <c r="D18" s="2">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2">
         <v>800</v>
@@ -3497,7 +3498,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E19" s="4">
         <v>1100</v>
@@ -3512,7 +3513,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2">
         <v>1400</v>
@@ -3527,7 +3528,7 @@
         <v>240</v>
       </c>
       <c r="D21" s="4">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="E21" s="4">
         <v>1900</v>
@@ -3542,7 +3543,7 @@
         <v>260</v>
       </c>
       <c r="D22" s="2">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2">
         <v>2300</v>
@@ -3557,7 +3558,7 @@
         <v>280</v>
       </c>
       <c r="D23" s="4">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="E23" s="4">
         <v>2600</v>
@@ -3572,7 +3573,7 @@
         <v>300</v>
       </c>
       <c r="D24" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2">
         <v>2900</v>
@@ -3587,7 +3588,7 @@
         <v>320</v>
       </c>
       <c r="D25" s="4">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="E25" s="4">
         <v>3200</v>
@@ -3602,7 +3603,7 @@
         <v>340</v>
       </c>
       <c r="D26" s="2">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="E26" s="2">
         <v>3600</v>
@@ -3617,7 +3618,7 @@
         <v>360</v>
       </c>
       <c r="D27" s="4">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="E27" s="4">
         <v>4000</v>
@@ -3633,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3700,7 +3701,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2">
         <v>200</v>
@@ -3715,7 +3716,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4">
         <v>250</v>
@@ -3730,7 +3731,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>300</v>
@@ -3745,7 +3746,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="4">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E11" s="4">
         <v>350</v>
@@ -3760,7 +3761,7 @@
         <v>130</v>
       </c>
       <c r="D12" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2">
         <v>400</v>
@@ -3775,7 +3776,7 @@
         <v>140</v>
       </c>
       <c r="D13" s="4">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4">
         <v>450</v>
@@ -3790,7 +3791,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>500</v>
@@ -3805,7 +3806,7 @@
         <v>160</v>
       </c>
       <c r="D15" s="4">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4">
         <v>550</v>
@@ -3820,7 +3821,7 @@
         <v>170</v>
       </c>
       <c r="D16" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2">
         <v>620</v>
@@ -3835,7 +3836,7 @@
         <v>180</v>
       </c>
       <c r="D17" s="4">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E17" s="4">
         <v>760</v>
@@ -3850,7 +3851,7 @@
         <v>190</v>
       </c>
       <c r="D18" s="2">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2">
         <v>800</v>
@@ -3865,7 +3866,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E19" s="4">
         <v>1100</v>
@@ -3880,7 +3881,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2">
         <v>1400</v>
@@ -3895,7 +3896,7 @@
         <v>240</v>
       </c>
       <c r="D21" s="4">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="E21" s="4">
         <v>1900</v>
@@ -3910,7 +3911,7 @@
         <v>260</v>
       </c>
       <c r="D22" s="2">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2">
         <v>2300</v>
@@ -3925,7 +3926,7 @@
         <v>280</v>
       </c>
       <c r="D23" s="4">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="E23" s="4">
         <v>2600</v>
@@ -3940,7 +3941,7 @@
         <v>300</v>
       </c>
       <c r="D24" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2">
         <v>2900</v>
@@ -3955,7 +3956,7 @@
         <v>320</v>
       </c>
       <c r="D25" s="4">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="E25" s="4">
         <v>3200</v>
@@ -3970,7 +3971,7 @@
         <v>340</v>
       </c>
       <c r="D26" s="2">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="E26" s="2">
         <v>3600</v>
@@ -3985,7 +3986,7 @@
         <v>360</v>
       </c>
       <c r="D27" s="4">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="E27" s="4">
         <v>4000</v>
